--- a/RPA/Test.xlsx
+++ b/RPA/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Documents\ProcManProject\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1207778E-54B5-4988-B9A0-731EC9A32FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D4197C-7110-41B3-B42D-42F18AA49DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18C00DE0-CA25-4E21-90E1-FFB54D76C74E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{18C00DE0-CA25-4E21-90E1-FFB54D76C74E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6B18C2-CF47-4032-85CF-FBACC916DA27}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
